--- a/public/admin/format_import/format_import_agreement.xlsx
+++ b/public/admin/format_import/format_import_agreement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B050A-C48C-4FFA-99BF-D5B169D13EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C32C5-679F-43E0-A7CD-8D8024403552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Addendum ID</t>
   </si>
@@ -93,21 +93,6 @@
     <t>Pinalti</t>
   </si>
   <si>
-    <t>bababab</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>asdadad</t>
-  </si>
-  <si>
-    <t>qqewq</t>
-  </si>
-  <si>
-    <t>28-07-2023</t>
-  </si>
-  <si>
     <t>12 Hari</t>
   </si>
   <si>
@@ -121,13 +106,34 @@
   </si>
   <si>
     <t>8.000.000</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>No PKWT</t>
+  </si>
+  <si>
+    <t>CLEANER</t>
+  </si>
+  <si>
+    <t>TEST 1</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +141,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -164,7 +176,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,135 +512,163 @@
     <col min="21" max="21" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>230101</v>
+      </c>
+      <c r="I2" s="2">
+        <v>230102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>18</v>
+      </c>
+      <c r="W2">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>2023</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
